--- a/projects/zj-gcode/src/main/resources/docs/tables.xlsx
+++ b/projects/zj-gcode/src/main/resources/docs/tables.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="IOS_CHANNEL" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="常量" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,12 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>字段名</t>
   </si>
   <si>
-    <t>数据类型</t>
+    <t>java类型</t>
   </si>
   <si>
     <t>数据长度</t>
@@ -45,67 +45,79 @@
     <t>CHANNEL_ID</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>游戏专区ID</t>
+  </si>
+  <si>
+    <t>IOS_CATAGORY_ID</t>
+  </si>
+  <si>
+    <t>分类ID</t>
+  </si>
+  <si>
+    <t>MANUAL_PKG_URL</t>
+  </si>
+  <si>
+    <t>手动修改的游戏包地址</t>
+  </si>
+  <si>
+    <t>CHANNEL_PKG_URL</t>
+  </si>
+  <si>
+    <t>从专区拉取的最新游戏包地址</t>
+  </si>
+  <si>
+    <t>SORT</t>
+  </si>
+  <si>
+    <t>排序值（数值越大排序越前）</t>
+  </si>
+  <si>
+    <t>CREATED_DATE</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>OPERATOR</t>
+  </si>
+  <si>
+    <t>最后操作人</t>
+  </si>
+  <si>
+    <t>PUBLISH_DATE</t>
+  </si>
+  <si>
+    <t>游戏包发布时间</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>游戏专区ID</t>
-  </si>
-  <si>
-    <t>IOS_CATAGORY_ID</t>
+    <t>Boolean</t>
   </si>
   <si>
     <t>tinyint</t>
   </si>
   <si>
-    <t>分类ID</t>
-  </si>
-  <si>
-    <t>MANUAL_PKG_URL</t>
+    <t>Long</t>
   </si>
   <si>
     <t>varchar</t>
   </si>
   <si>
-    <t>手动修改的游戏包地址</t>
-  </si>
-  <si>
-    <t>CHANNEL_PKG_URL</t>
-  </si>
-  <si>
-    <t>从专区拉取的最新游戏包地址</t>
-  </si>
-  <si>
-    <t>SORT</t>
-  </si>
-  <si>
-    <t>排序值（数值越大排序越前）</t>
-  </si>
-  <si>
-    <t>CREATED_DATE</t>
+    <t>String</t>
   </si>
   <si>
     <t>datetime</t>
-  </si>
-  <si>
-    <t>创建时间</t>
-  </si>
-  <si>
-    <t>OPERATOR</t>
-  </si>
-  <si>
-    <t>最后操作人</t>
-  </si>
-  <si>
-    <t>PUBLISH_DATE</t>
-  </si>
-  <si>
-    <t>游戏包发布时间</t>
   </si>
 </sst>
 </file>
@@ -118,7 +130,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,13 +160,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -184,29 +189,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -217,6 +215,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,97 +318,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,85 +498,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,148 +629,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1133,7 +1138,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1147,11 +1152,11 @@
     <col min="8" max="8" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:8">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1177,47 +1182,41 @@
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B4" s="3"/>
       <c r="C4" s="3">
         <v>500</v>
       </c>
@@ -1226,16 +1225,14 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B5" s="3"/>
       <c r="C5" s="3">
         <v>500</v>
       </c>
@@ -1244,52 +1241,46 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B8" s="3"/>
       <c r="C8" s="3">
         <v>50</v>
       </c>
@@ -1298,23 +1289,21 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1327,14 +1316,47 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
